--- a/mini mapa.xlsx
+++ b/mini mapa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\980\Desktop\Lenguajes\Space invaders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1088FBDD-F1E9-4042-B9B9-629BB3C26066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C11CA6-D0BE-4741-A6D9-D5FD04F1374D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{087678EC-3FB8-4A05-B47C-75E866FED999}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="11">
   <si>
     <t>pulpo</t>
   </si>
@@ -49,13 +49,36 @@
   <si>
     <t>Area de juego</t>
   </si>
+  <si>
+    <t>incluir parametro que diga la direccion hacia donde se mueven, i para izq, d para der</t>
+  </si>
+  <si>
+    <t>NOTAS</t>
+  </si>
+  <si>
+    <t>inicializar el array de balas en falso, activarlas hasta que el jugador las dispare</t>
+  </si>
+  <si>
+    <t>considerar colision enemigo-bunker</t>
+  </si>
+  <si>
+    <t>si no se estan editando los enemigos, cambiar los structs de los enemigos a punteros</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -223,10 +246,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -234,18 +257,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +589,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +723,9 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
@@ -741,7 +769,9 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -785,7 +815,9 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="20">
+        <v>2</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
@@ -829,7 +861,9 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="20">
+        <v>3</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
@@ -873,7 +907,9 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="20">
+        <v>4</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1170,6 +1206,32 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J28" s="18"/>
     </row>

--- a/mini mapa.xlsx
+++ b/mini mapa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\980\Desktop\Lenguajes\Space invaders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gababarca\Desktop\Lenguajes\Iterativo\SpaceInvanders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1088FBDD-F1E9-4042-B9B9-629BB3C26066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A0DBB-D38F-4DB2-8777-F148842C31DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{087678EC-3FB8-4A05-B47C-75E866FED999}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{087678EC-3FB8-4A05-B47C-75E866FED999}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,39 +654,17 @@
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8">
-        <v>4</v>
-      </c>
-      <c r="J3" s="8">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8">
-        <v>6</v>
-      </c>
-      <c r="L3" s="8">
-        <v>7</v>
-      </c>
-      <c r="M3" s="8">
-        <v>8</v>
-      </c>
-      <c r="N3" s="8">
-        <v>9</v>
-      </c>
-      <c r="O3" s="8">
-        <v>10</v>
-      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="9"/>
